--- a/classification/ImageClassification-Results.xlsx
+++ b/classification/ImageClassification-Results.xlsx
@@ -8,13 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annagodin/Library/Mobile Documents/com~apple~CloudDocs/College 2019-2020/Fall 2019/CS440 AI/Final Project/cs440-final-project/classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC69330-C7B2-4F46-9A65-068E99DF5437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBF9EDB-8F03-EE46-8C87-8A09221A51BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{062D5C80-6B37-194B-8AAA-83EE65141AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$J$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$8:$J$8</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$2:$J$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$8:$J$8</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$2:$J$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$8:$J$8</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$10:$J$10</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$16:$J$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$J$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$8:$J$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$2:$J$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$8:$J$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$J$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$8:$J$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2:$J$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$8:$J$8</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -135,6 +153,6353 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bayes Face</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39254855643044612"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.74533333333319995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80666666666660003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82133333333339986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86133333333359996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.87466666666680004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90266666666660011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91333333333300004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-139A-CB4A-86B6-EF02B55C2A69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="677734496"/>
+        <c:axId val="591917056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="677734496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>% of Data Points used that are Reserved</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                  <a:t> for Testing</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591917056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="591917056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="677734496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bayes Digit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.72259999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76580000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77740000000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DF4-9048-8076-EAD1999ED72F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="731260128"/>
+        <c:axId val="731261808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="731260128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>% of Data Points used that are Reserved for Testing </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731261808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="731261808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731260128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Perceptron</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Face</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$24:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.79066666666680008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77199999999979996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79066666666660002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79199999999980009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79333333333340006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82533333333339998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81866666666659993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85333333333339989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83733333333319993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0801-8048-BFBE-53B5F110744D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="731260128"/>
+        <c:axId val="731261808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="731260128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>% of Data Points used that are Reserved for Testing </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731261808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="731261808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731260128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Perceptron</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Digit</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.62380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68419999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72839999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73239999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76059999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B71F-B044-89AF-6FFEED768D7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="731260128"/>
+        <c:axId val="731261808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="731260128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>% of Data Points used that are Reserved for Testing </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731261808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="731261808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731260128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-Nearest Face</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$40:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.64666666666679995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74133333333340001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69733333333319991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7413333333333999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75200000000020006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73333333333319994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74533333333319995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75333333333300001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2137-9E41-9B52-AC0689DC31F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="731260128"/>
+        <c:axId val="731261808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="731260128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>% of Data Points used that are Reserved for Testing </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731261808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="731261808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731260128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-Nearest Digit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$48:$J$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.81319999999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8488</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87260000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87900000000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88960000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90180000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90360000000000018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68F1-BC4E-808B-95C4CD5A07D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="731260128"/>
+        <c:axId val="731261808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="731260128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>% of Data Points used that are Reserved for Testing </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731261808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="731261808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731260128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF27179-1E0D-004D-A7DF-2A973167D5AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393996AD-B124-4046-A35A-6CD7DBEF80C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82404576-4B73-A64F-86A8-9D253B94B4ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A62E4A69-28F9-584E-9E4A-3EA8C311BD20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A4537A-05B2-E941-AD7A-EA092466194D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0676F37A-0D5B-9F4E-9616-BE3B7F18AEDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,8 +6801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B03DE12-83B2-9846-963D-03BC9059A74F}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -962,204 +7327,204 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>0.71333333333299997</v>
+        <v>0.79333333333300005</v>
       </c>
       <c r="B19" s="3">
-        <v>0.78666666666700003</v>
+        <v>0.79333333333300005</v>
       </c>
       <c r="C19" s="3">
-        <v>0.74</v>
+        <v>0.83333333333299997</v>
       </c>
       <c r="D19" s="3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E19" s="3">
-        <v>0.84</v>
+        <v>0.79333333333300005</v>
       </c>
       <c r="F19" s="3">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="G19" s="3">
-        <v>0.82666666666699995</v>
+        <v>0.82</v>
       </c>
       <c r="H19" s="3">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="I19" s="3">
-        <v>0.84</v>
+        <v>0.86666666666699999</v>
       </c>
       <c r="J19" s="3">
-        <v>0.82</v>
+        <v>0.81333333333299995</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>0.77333333333300003</v>
+        <v>0.72</v>
       </c>
       <c r="B20" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D20" s="3">
         <v>0.81333333333299995</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.82666666666699995</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.66</v>
-      </c>
       <c r="E20" s="3">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="F20" s="3">
-        <v>0.77333333333300003</v>
+        <v>0.84666666666699997</v>
       </c>
       <c r="G20" s="3">
-        <v>0.74</v>
+        <v>0.80666666666700004</v>
       </c>
       <c r="H20" s="3">
-        <v>0.80666666666700004</v>
+        <v>0.76666666666700001</v>
       </c>
       <c r="I20" s="3">
-        <v>0.83333333333299997</v>
+        <v>0.84666666666699997</v>
       </c>
       <c r="J20" s="3">
-        <v>0.77333333333300003</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>0.78666666666700003</v>
+        <v>0.82666666666699995</v>
       </c>
       <c r="B21" s="3">
-        <v>0.84</v>
+        <v>0.75333333333300001</v>
       </c>
       <c r="C21" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.79333333333300005</v>
+      </c>
+      <c r="E21" s="3">
         <v>0.84666666666699997</v>
       </c>
-      <c r="D21" s="3">
+      <c r="F21" s="3">
         <v>0.7</v>
       </c>
-      <c r="E21" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.83333333333299997</v>
-      </c>
       <c r="G21" s="3">
-        <v>0.74666666666699999</v>
+        <v>0.82666666666699995</v>
       </c>
       <c r="H21" s="3">
         <v>0.83333333333299997</v>
       </c>
       <c r="I21" s="3">
-        <v>0.80666666666700004</v>
+        <v>0.85333333333299999</v>
       </c>
       <c r="J21" s="3">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>0.76666666666700001</v>
+        <v>0.80666666666700004</v>
       </c>
       <c r="B22" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.85333333333299999</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="E22" s="3">
         <v>0.80666666666700004</v>
       </c>
-      <c r="C22" s="3">
+      <c r="F22" s="3">
+        <v>0.85333333333299999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.83333333333299997</v>
+      </c>
+      <c r="H22" s="3">
         <v>0.84</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.73333333333299999</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.69333333333299996</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.81333333333299995</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0.86666666666699999</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0.78</v>
       </c>
       <c r="I22" s="3">
         <v>0.84</v>
       </c>
       <c r="J22" s="3">
-        <v>0.76666666666700001</v>
+        <v>0.83333333333299997</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>0.79333333333300005</v>
+        <v>0.80666666666700004</v>
       </c>
       <c r="B23" s="3">
-        <v>0.67333333333300005</v>
+        <v>0.77333333333300003</v>
       </c>
       <c r="C23" s="3">
-        <v>0.84666666666699997</v>
+        <v>0.78666666666700003</v>
       </c>
       <c r="D23" s="3">
+        <v>0.81333333333299995</v>
+      </c>
+      <c r="E23" s="3">
         <v>0.83333333333299997</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>0.74666666666699999</v>
       </c>
-      <c r="F23" s="3">
-        <v>0.73333333333299999</v>
-      </c>
       <c r="G23" s="3">
-        <v>0.886666666667</v>
+        <v>0.84</v>
       </c>
       <c r="H23" s="3">
-        <v>0.84666666666699997</v>
+        <v>0.83333333333299997</v>
       </c>
       <c r="I23" s="3">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="J23" s="3">
-        <v>0.64666666666700001</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <f>AVERAGE(A19:A23)</f>
-        <v>0.76666666666659999</v>
+        <v>0.79066666666680008</v>
       </c>
       <c r="B24" s="5">
         <f t="shared" ref="B24" si="10">AVERAGE(B19:B23)</f>
-        <v>0.78400000000000003</v>
+        <v>0.77199999999979996</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" ref="C24" si="11">AVERAGE(C19:C23)</f>
-        <v>0.8200000000001999</v>
+        <v>0.79066666666660002</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" ref="D24" si="12">AVERAGE(D19:D23)</f>
-        <v>0.72533333333319994</v>
+        <v>0.79199999999980009</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ref="E24" si="13">AVERAGE(E19:E23)</f>
-        <v>0.78800000000000003</v>
+        <v>0.82</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ref="F24" si="14">AVERAGE(F19:F23)</f>
-        <v>0.79866666666639996</v>
+        <v>0.79333333333340006</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" ref="G24" si="15">AVERAGE(G19:G23)</f>
-        <v>0.81333333333359992</v>
+        <v>0.82533333333339998</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" ref="H24" si="16">AVERAGE(H19:H23)</f>
-        <v>0.80933333333339996</v>
+        <v>0.81866666666659993</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" ref="I24" si="17">AVERAGE(I19:I23)</f>
-        <v>0.79200000000000004</v>
+        <v>0.85333333333339989</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" ref="J24" si="18">AVERAGE(J19:J23)</f>
-        <v>0.73333333333340001</v>
+        <v>0.83733333333319993</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1881,5 +8246,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/classification/ImageClassification-Results.xlsx
+++ b/classification/ImageClassification-Results.xlsx
@@ -8,31 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annagodin/Library/Mobile Documents/com~apple~CloudDocs/College 2019-2020/Fall 2019/CS440 AI/Final Project/cs440-final-project/classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBF9EDB-8F03-EE46-8C87-8A09221A51BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84890B74-D9ED-4047-90AC-969911ADE83C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{062D5C80-6B37-194B-8AAA-83EE65141AD8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{062D5C80-6B37-194B-8AAA-83EE65141AD8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Accuracy" sheetId="1" r:id="rId1"/>
+    <sheet name="Time to Train" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$8:$J$8</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$8:$J$8</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$8:$J$8</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$10:$J$10</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$16:$J$16</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$8:$J$8</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$8:$J$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$8:$J$8</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$2:$J$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$8:$J$8</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Bayes Face</t>
   </si>
@@ -68,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -135,9 +118,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,7 +286,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$J$2</c:f>
+              <c:f>Accuracy!$A$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -342,7 +325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$J$8</c:f>
+              <c:f>Accuracy!$A$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -428,7 +411,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1100" baseline="0"/>
-                  <a:t> for Testing</a:t>
+                  <a:t> for Training</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1100"/>
@@ -659,6 +642,1623 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time to Train - Bayes Digit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0956691741919995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2194198131559997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5670578002940001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0335366249079989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0501114368440003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0969957828519998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4584170341479989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6355923652659996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.785961437225998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9651386737800003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A46-E743-AC2E-050982C02294}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2063039055"/>
+        <c:axId val="2063095567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2063039055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% of Data Points used that are Reserved for Training </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063095567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2063095567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063039055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time to Train - K-Nearest Face</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$40:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.8771376132980002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8475164413440006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9056706905359997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9960583210000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9972957611100002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0452892303440002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0986537933339999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1694379329679996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2516505718220001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3117195606239997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C26-8742-9363-03B1AE99FA1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2063039055"/>
+        <c:axId val="2063095567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2063039055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% of Data Points used that are Reserved for Training </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063095567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2063095567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063039055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time to Train - K-Nearest Digit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$48:$J$48</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.89024538992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.25322561262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.938141012199999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.460789394379997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.067274856559997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.66868562698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.374799394579995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.516399192800002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.812934350980001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.863224601740001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2D5-DD42-B540-52BC2097C5E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2063039055"/>
+        <c:axId val="2063095567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2063039055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% of Data Points used that are Reserved for Training </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063095567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2063095567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063039055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -799,7 +2399,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$10:$J$10</c:f>
+              <c:f>Accuracy!$A$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -838,7 +2438,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$J$16</c:f>
+              <c:f>Accuracy!$A$16:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -922,7 +2522,7 @@
                   <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>% of Data Points used that are Reserved for Testing </a:t>
+                  <a:t>% of Data Points used that are Reserved for Training </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1100">
                   <a:effectLst/>
@@ -1322,7 +2922,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$10:$J$10</c:f>
+              <c:f>Accuracy!$A$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1361,7 +2961,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$24:$J$24</c:f>
+              <c:f>Accuracy!$A$24:$J$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1445,7 +3045,7 @@
                   <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>% of Data Points used that are Reserved for Testing </a:t>
+                  <a:t>% of Data Points used that are Reserved for Training </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1100">
                   <a:effectLst/>
@@ -1845,7 +3445,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$10:$J$10</c:f>
+              <c:f>Accuracy!$A$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1884,7 +3484,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$32:$J$32</c:f>
+              <c:f>Accuracy!$A$32:$J$32</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1968,7 +3568,7 @@
                   <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>% of Data Points used that are Reserved for Testing </a:t>
+                  <a:t>% of Data Points used that are Reserved for Training </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1100">
                   <a:effectLst/>
@@ -2363,7 +3963,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$10:$J$10</c:f>
+              <c:f>Accuracy!$A$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2402,7 +4002,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$40:$J$40</c:f>
+              <c:f>Accuracy!$A$40:$J$40</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2486,7 +4086,7 @@
                   <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>% of Data Points used that are Reserved for Testing </a:t>
+                  <a:t>% of Data Points used that are Reserved for Training </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1100">
                   <a:effectLst/>
@@ -2881,7 +4481,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$10:$J$10</c:f>
+              <c:f>Accuracy!$A$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2920,7 +4520,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$48:$J$48</c:f>
+              <c:f>Accuracy!$A$48:$J$48</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3004,7 +4604,7 @@
                   <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>% of Data Points used that are Reserved for Testing </a:t>
+                  <a:t>% of Data Points used that are Reserved for Training </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1100">
                   <a:effectLst/>
@@ -3259,9 +4859,1913 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time to Train - Bayes Face</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.9483966827399999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9377696514120002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0038177967079998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.943828439712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0077327728260004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9840951919560004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.967340183258</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9450791358960005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9796404361720001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9816610813159996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1DB2-0941-BEE4-712B63F46E12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.9483966827399999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9377696514120002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0038177967079998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.943828439712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0077327728260004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9840951919560004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.967340183258</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9450791358960005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9796404361720001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9816610813159996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1DB2-0941-BEE4-712B63F46E12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2063039055"/>
+        <c:axId val="2063095567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2063039055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% of Data Points used that are Reserved for Training </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063095567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2063095567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063039055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time to Train - Perceptron Face</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$24:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.9165170192719998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5006001472459998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9802281856520008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2883422374739997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4940844058999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3423257827740001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6765320301060003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3612359523780002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5346515655519992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8390278816240002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75AB-3442-9681-6DFBEFD14414}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2063039055"/>
+        <c:axId val="2063095567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2063039055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% of Data Points used that are Reserved for Training </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063095567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2063095567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063039055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time to Train - Perceptron Digit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Time to Train'!$A$32:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>29.117680120480003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.589476633079997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.282578229900004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.770761203760003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.203731012340008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.1367246151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.178388547919994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.84782414435999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.539012765880017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.405830240259988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4438-1E41-86F5-08792DEA6AE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2063039055"/>
+        <c:axId val="2063095567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2063039055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% of Data Points used that are Reserved for Training </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063095567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2063095567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2063039055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
   <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -3465,6 +6969,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
@@ -3933,6 +7557,1536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
@@ -6268,6 +11422,1536 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -6502,6 +13186,237 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>715129</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>287262</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17CEA68B-2337-484D-B597-E27EED09F104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>801310</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>373443</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>181430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0431A8AC-0EA8-C045-9EB9-D30403922557}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15119</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>418800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E05A37A-A2EF-854F-91A0-857282D6DD57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>711201</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285149</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>37496</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F87E0CF-4495-4140-9F59-9B60EF7C7F81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>403681</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>189896</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5A83AF-C53C-FD41-A5E1-76D773426E3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>403681</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>37496</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7A71B7-819A-8A41-8A7E-23FA9F9197B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6801,8 +13716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B03DE12-83B2-9846-963D-03BC9059A74F}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8248,4 +15163,1508 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BF49BB-E5CC-AE47-A4B9-B8587BDC0913}">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F27" zoomScale="107" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>3.1461129188500001</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.98005700111</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.92323899269</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2.9667789936100002</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.95342803001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.0473320484199999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2.9830288886999998</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2.9941048622099999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2.9933171272300001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.9769940376299999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2.8756430149100001</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2.9344460964199999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.2135698795300001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.9375870227799998</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.9038300514199999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.03905797005</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.9565680027000001</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.9310019016300002</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.9778890609699999</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2.93285107613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2.9204621314999999</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.8700349330899999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.9675590991999998</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.9399909973099998</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.17388081551</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.9729809761000001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.0084068775200001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2.9479157924699999</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.9873940944699999</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.0178790092500001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2.9157462120100002</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.9710111617999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.9557650089299998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.9493720531499998</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.0260059833500002</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.9384710788700001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.9201881885500001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2.9097940921799998</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.99309492111</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.03210020065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2.8840191364300001</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.9332990646399999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.95895600319</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.9254131317100001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.98151898384</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.9226338863399999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.9685089588200002</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.9425790309900002</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.9465069770799999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2.9484810829199999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <f>AVERAGE(A3:A7)</f>
+        <v>2.9483966827399999</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" ref="B8:J8" si="0">AVERAGE(B3:B7)</f>
+        <v>2.9377696514120002</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0038177967079998</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.943828439712</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0077327728260004</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9840951919560004</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.967340183258</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9450791358960005</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9796404361720001</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9816610813159996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>7.0662410259200001</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7.3737950325000003</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7.9717121124299997</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7.6409740448000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8.1645140647899996</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8.0078439712500007</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8.3690960407299997</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8.6583089828500004</v>
+      </c>
+      <c r="I11" s="3">
+        <v>8.7958030700700007</v>
+      </c>
+      <c r="J11" s="3">
+        <v>8.97459697723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>7.1512868404400001</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7.1772029399899999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7.2924759388</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8.2581820488000002</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7.8759970665000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7.8928020000499997</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8.5680398941</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8.5683248043100004</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8.9550299644500004</v>
+      </c>
+      <c r="J12" s="3">
+        <v>8.9740219116199995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>7.0454330444300002</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7.1608738899200004</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.53570795059</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8.2472279071799992</v>
+      </c>
+      <c r="E13" s="3">
+        <v>7.9400980472600002</v>
+      </c>
+      <c r="F13" s="3">
+        <v>8.1541519165</v>
+      </c>
+      <c r="G13" s="3">
+        <v>8.5028941631299997</v>
+      </c>
+      <c r="H13" s="3">
+        <v>8.4439129829400006</v>
+      </c>
+      <c r="I13" s="3">
+        <v>8.8045101165799995</v>
+      </c>
+      <c r="J13" s="3">
+        <v>8.9417531490299993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>7.1839120388</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7.2699041366600001</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7.5262989997899998</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8.1124939918500001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8.1373460292799997</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8.2872500419600001</v>
+      </c>
+      <c r="G14" s="3">
+        <v>8.4556000232699997</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8.8438050746899997</v>
+      </c>
+      <c r="I14" s="3">
+        <v>8.8606159686999995</v>
+      </c>
+      <c r="J14" s="3">
+        <v>8.9616742134099994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>7.0314729213699998</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7.1153230667100003</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7.5090939998600001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7.9088051319100003</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8.1326019763899993</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8.1429309844999995</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8.3964550495099992</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8.6636099815400005</v>
+      </c>
+      <c r="I15" s="3">
+        <v>8.5138480663300005</v>
+      </c>
+      <c r="J15" s="3">
+        <v>8.9736471176099997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <f>AVERAGE(A11:A15)</f>
+        <v>7.0956691741919995</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" ref="B16:J16" si="1">AVERAGE(B11:B15)</f>
+        <v>7.2194198131559997</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>7.5670578002940001</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>8.0335366249079989</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>8.0501114368440003</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>8.0969957828519998</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>8.4584170341479989</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>8.6355923652659996</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="1"/>
+        <v>8.785961437225998</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="1"/>
+        <v>8.9651386737800003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>3.77835202217</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4.8681519031500002</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.9168288707699999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5.0570249557500002</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5.5144309997600001</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5.3137769699100001</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5.6564631462100001</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5.3040978908499996</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5.5837528705599997</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5.6456830501599997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>3.9140300750699999</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4.4408400058700002</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4.4379069805100002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5.4287900924699999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5.5187320709199996</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5.3954200744599996</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5.6496770381900001</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5.37257099152</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5.60457491875</v>
+      </c>
+      <c r="J20" s="3">
+        <v>5.8511891365100004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>3.7168769836400002</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4.6437599659000002</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5.8766069412200004</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5.3056910037999998</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5.4367539882699996</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5.3434698581699998</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5.6826879978199996</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5.4426379203800002</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5.5969469547299999</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5.8397140502899996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>4.2827959060699996</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4.2054469585399996</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4.85435509682</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5.3964140415199999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5.4888970851899996</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5.3238639831499999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5.71574211121</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5.3007550239599999</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5.3563740253400001</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5.95893907547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>3.8905301094100002</v>
+      </c>
+      <c r="B23" s="3">
+        <v>4.3448019027699996</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4.8154430389399998</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5.2537910938300003</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5.5116078853600001</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5.33509802818</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5.6780898570999998</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5.3861179351799997</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5.5316090583799999</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5.8996140956899996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <f>AVERAGE(A19:A23)</f>
+        <v>3.9165170192719998</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" ref="B24:J24" si="2">AVERAGE(B19:B23)</f>
+        <v>4.5006001472459998</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="2"/>
+        <v>4.9802281856520008</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="2"/>
+        <v>5.2883422374739997</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="2"/>
+        <v>5.4940844058999998</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>5.3423257827740001</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="2"/>
+        <v>5.6765320301060003</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="2"/>
+        <v>5.3612359523780002</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="2"/>
+        <v>5.5346515655519992</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="2"/>
+        <v>5.8390278816240002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>29.152870893500001</v>
+      </c>
+      <c r="B27" s="3">
+        <v>39.111989975</v>
+      </c>
+      <c r="C27" s="3">
+        <v>47.8223609924</v>
+      </c>
+      <c r="D27" s="3">
+        <v>50.082646131499999</v>
+      </c>
+      <c r="E27" s="3">
+        <v>58.400532007199999</v>
+      </c>
+      <c r="F27" s="3">
+        <v>59.713415145900001</v>
+      </c>
+      <c r="G27" s="3">
+        <v>65.987766027500001</v>
+      </c>
+      <c r="H27" s="3">
+        <v>71.406950950600006</v>
+      </c>
+      <c r="I27" s="3">
+        <v>79.174463987400003</v>
+      </c>
+      <c r="J27" s="3">
+        <v>85.506105184600003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>28.578683853099999</v>
+      </c>
+      <c r="B28" s="3">
+        <v>37.762398958200002</v>
+      </c>
+      <c r="C28" s="3">
+        <v>43.777057170900001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>49.7100148201</v>
+      </c>
+      <c r="E28" s="3">
+        <v>53.519237995099999</v>
+      </c>
+      <c r="F28" s="3">
+        <v>58.666262865100002</v>
+      </c>
+      <c r="G28" s="3">
+        <v>65.104631900800001</v>
+      </c>
+      <c r="H28" s="3">
+        <v>71.350070953400007</v>
+      </c>
+      <c r="I28" s="3">
+        <v>78.491151094399996</v>
+      </c>
+      <c r="J28" s="3">
+        <v>84.676623105999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28.2325599194</v>
+      </c>
+      <c r="B29" s="3">
+        <v>37.9800679684</v>
+      </c>
+      <c r="C29" s="3">
+        <v>42.942209005400002</v>
+      </c>
+      <c r="D29" s="3">
+        <v>49.713757991800001</v>
+      </c>
+      <c r="E29" s="3">
+        <v>55.493880033499998</v>
+      </c>
+      <c r="F29" s="3">
+        <v>59.085052013400002</v>
+      </c>
+      <c r="G29" s="3">
+        <v>65.643692970299995</v>
+      </c>
+      <c r="H29" s="3">
+        <v>72.599035978299995</v>
+      </c>
+      <c r="I29" s="3">
+        <v>78.428360939000001</v>
+      </c>
+      <c r="J29" s="3">
+        <v>85.047097921399995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>28.686141014099999</v>
+      </c>
+      <c r="B30" s="3">
+        <v>38.036615133300003</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44.530579090099998</v>
+      </c>
+      <c r="D30" s="3">
+        <v>49.5718579292</v>
+      </c>
+      <c r="E30" s="3">
+        <v>53.633028984100001</v>
+      </c>
+      <c r="F30" s="3">
+        <v>59.110784053800003</v>
+      </c>
+      <c r="G30" s="3">
+        <v>68.208487987500007</v>
+      </c>
+      <c r="H30" s="3">
+        <v>71.719456911099996</v>
+      </c>
+      <c r="I30" s="3">
+        <v>78.377251863500007</v>
+      </c>
+      <c r="J30" s="3">
+        <v>85.286494016600003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30.938144922300001</v>
+      </c>
+      <c r="B31" s="3">
+        <v>40.056311130499999</v>
+      </c>
+      <c r="C31" s="3">
+        <v>42.340684890699997</v>
+      </c>
+      <c r="D31" s="3">
+        <v>49.7755291462</v>
+      </c>
+      <c r="E31" s="3">
+        <v>54.971976041799998</v>
+      </c>
+      <c r="F31" s="3">
+        <v>59.1081089973</v>
+      </c>
+      <c r="G31" s="3">
+        <v>65.947363853499994</v>
+      </c>
+      <c r="H31" s="3">
+        <v>72.163605928400003</v>
+      </c>
+      <c r="I31" s="3">
+        <v>78.223835945100006</v>
+      </c>
+      <c r="J31" s="3">
+        <v>86.512830972700002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <f>AVERAGE(A27:A31)</f>
+        <v>29.117680120480003</v>
+      </c>
+      <c r="B32" s="5">
+        <f t="shared" ref="B32:J32" si="3">AVERAGE(B27:B31)</f>
+        <v>38.589476633079997</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="3"/>
+        <v>44.282578229900004</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="3"/>
+        <v>49.770761203760003</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="3"/>
+        <v>55.203731012340008</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="3"/>
+        <v>59.1367246151</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="3"/>
+        <v>66.178388547919994</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="3"/>
+        <v>71.84782414435999</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="3"/>
+        <v>78.539012765880017</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="3"/>
+        <v>85.405830240259988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>2.9654760360700001</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2.8419589996300001</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2.9309258461000001</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2.9948329925500001</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2.9804980754899999</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3.0370759964</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3.1050000190699998</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3.1581451892899999</v>
+      </c>
+      <c r="I35" s="3">
+        <v>3.27549600601</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3.2625811100000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>2.9314849376700001</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2.8511390686000002</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2.9046959876999998</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2.97982692719</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2.9781649112699999</v>
+      </c>
+      <c r="F36" s="3">
+        <v>3.0344660282100002</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3.1311960220300001</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3.13387918472</v>
+      </c>
+      <c r="I36" s="3">
+        <v>3.2227890491500002</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3.3063609600100001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>2.8150811195399998</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2.8465571403499998</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2.8774559497799999</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3.0786039829299998</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.98742079735</v>
+      </c>
+      <c r="F37" s="3">
+        <v>3.0348570346799999</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3.0752828121200002</v>
+      </c>
+      <c r="H37" s="3">
+        <v>3.2083060741399998</v>
+      </c>
+      <c r="I37" s="3">
+        <v>3.2391250133499998</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3.3350608348800002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>2.83479499817</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2.8488509655000001</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2.90614581108</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2.9642748832699999</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3.0528330802900001</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3.05943894386</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3.0898671150200001</v>
+      </c>
+      <c r="H38" s="3">
+        <v>3.1994001865400001</v>
+      </c>
+      <c r="I38" s="3">
+        <v>3.2518508434300002</v>
+      </c>
+      <c r="J38" s="3">
+        <v>3.3238670826000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>2.8388509750400002</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2.8490760326400002</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2.90912985802</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2.9627528190599999</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2.9875619411500001</v>
+      </c>
+      <c r="F39" s="3">
+        <v>3.0606081485700001</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3.0919229984299998</v>
+      </c>
+      <c r="H39" s="3">
+        <v>3.1474590301499998</v>
+      </c>
+      <c r="I39" s="3">
+        <v>3.26899194717</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3.33072781563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <f>AVERAGE(A35:A39)</f>
+        <v>2.8771376132980002</v>
+      </c>
+      <c r="B40" s="5">
+        <f t="shared" ref="B40:J40" si="4">AVERAGE(B35:B39)</f>
+        <v>2.8475164413440006</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="4"/>
+        <v>2.9056706905359997</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="4"/>
+        <v>2.9960583210000005</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="4"/>
+        <v>2.9972957611100002</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="4"/>
+        <v>3.0452892303440002</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="4"/>
+        <v>3.0986537933339999</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="4"/>
+        <v>3.1694379329679996</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="4"/>
+        <v>3.2516505718220001</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="4"/>
+        <v>3.3117195606239997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>10.9189729691</v>
+      </c>
+      <c r="B43" s="3">
+        <v>15.210086822499999</v>
+      </c>
+      <c r="C43" s="3">
+        <v>19.577065944699999</v>
+      </c>
+      <c r="D43" s="3">
+        <v>24.095453023899999</v>
+      </c>
+      <c r="E43" s="3">
+        <v>29.259796142599999</v>
+      </c>
+      <c r="F43" s="3">
+        <v>34.677089929600001</v>
+      </c>
+      <c r="G43" s="3">
+        <v>37.135378837600001</v>
+      </c>
+      <c r="H43" s="3">
+        <v>42.762243032500002</v>
+      </c>
+      <c r="I43" s="3">
+        <v>47.050549030299997</v>
+      </c>
+      <c r="J43" s="3">
+        <v>53.770756959899998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>10.952085971800001</v>
+      </c>
+      <c r="B44" s="3">
+        <v>15.017881155</v>
+      </c>
+      <c r="C44" s="3">
+        <v>19.826014995600001</v>
+      </c>
+      <c r="D44" s="3">
+        <v>23.9581599236</v>
+      </c>
+      <c r="E44" s="3">
+        <v>30.039525985699999</v>
+      </c>
+      <c r="F44" s="3">
+        <v>33.171372175199998</v>
+      </c>
+      <c r="G44" s="3">
+        <v>39.158373117399996</v>
+      </c>
+      <c r="H44" s="3">
+        <v>44.651700019800003</v>
+      </c>
+      <c r="I44" s="3">
+        <v>48.264384985</v>
+      </c>
+      <c r="J44" s="3">
+        <v>51.3367459774</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>10.870460033400001</v>
+      </c>
+      <c r="B45" s="3">
+        <v>15.3615801334</v>
+      </c>
+      <c r="C45" s="3">
+        <v>20.2584898472</v>
+      </c>
+      <c r="D45" s="3">
+        <v>24.296532869299998</v>
+      </c>
+      <c r="E45" s="3">
+        <v>28.761631965599999</v>
+      </c>
+      <c r="F45" s="3">
+        <v>33.8869111538</v>
+      </c>
+      <c r="G45" s="3">
+        <v>38.568975925399997</v>
+      </c>
+      <c r="H45" s="3">
+        <v>43.736086130099999</v>
+      </c>
+      <c r="I45" s="3">
+        <v>45.669717788699998</v>
+      </c>
+      <c r="J45" s="3">
+        <v>53.328727006900003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>10.8545119762</v>
+      </c>
+      <c r="B46" s="3">
+        <v>15.0924429893</v>
+      </c>
+      <c r="C46" s="3">
+        <v>19.974726200100001</v>
+      </c>
+      <c r="D46" s="3">
+        <v>24.4007101059</v>
+      </c>
+      <c r="E46" s="3">
+        <v>28.349693059900002</v>
+      </c>
+      <c r="F46" s="3">
+        <v>33.407921075799997</v>
+      </c>
+      <c r="G46" s="3">
+        <v>37.870604991900002</v>
+      </c>
+      <c r="H46" s="3">
+        <v>43.643189907100002</v>
+      </c>
+      <c r="I46" s="3">
+        <v>46.899865865700001</v>
+      </c>
+      <c r="J46" s="3">
+        <v>54.665639877300002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>10.855195999099999</v>
+      </c>
+      <c r="B47" s="3">
+        <v>15.584136962900001</v>
+      </c>
+      <c r="C47" s="3">
+        <v>20.054408073400001</v>
+      </c>
+      <c r="D47" s="3">
+        <v>25.553091049199999</v>
+      </c>
+      <c r="E47" s="3">
+        <v>28.925727128999998</v>
+      </c>
+      <c r="F47" s="3">
+        <v>33.200133800499998</v>
+      </c>
+      <c r="G47" s="3">
+        <v>39.140664100599999</v>
+      </c>
+      <c r="H47" s="3">
+        <v>42.788776874500002</v>
+      </c>
+      <c r="I47" s="3">
+        <v>46.180154085200002</v>
+      </c>
+      <c r="J47" s="3">
+        <v>51.214253187200001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <f>AVERAGE(A43:A47)</f>
+        <v>10.89024538992</v>
+      </c>
+      <c r="B48" s="5">
+        <f t="shared" ref="B48:J48" si="5">AVERAGE(B43:B47)</f>
+        <v>15.25322561262</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="5"/>
+        <v>19.938141012199999</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="5"/>
+        <v>24.460789394379997</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="5"/>
+        <v>29.067274856559997</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="5"/>
+        <v>33.66868562698</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="5"/>
+        <v>38.374799394579995</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="5"/>
+        <v>43.516399192800002</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="5"/>
+        <v>46.812934350980001</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="5"/>
+        <v>52.863224601740001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>